--- a/realme/OCTOBER/05.10.2021/realme Bank Statement OCTOBER 2021.xlsx
+++ b/realme/OCTOBER/05.10.2021/realme Bank Statement OCTOBER 2021.xlsx
@@ -2381,6 +2381,12 @@
     <xf numFmtId="1" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="31" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2393,6 +2399,12 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2432,12 +2444,6 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2536,12 +2542,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="41" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3080,21 +3080,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="B1" s="258" t="s">
+      <c r="B1" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
       <c r="A2" s="15"/>
-      <c r="B2" s="259" t="s">
+      <c r="B2" s="261" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="259"/>
-      <c r="D2" s="259"/>
-      <c r="E2" s="259"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="16" t="s">
@@ -3213,7 +3213,7 @@
       <c r="C9" s="22">
         <v>70000</v>
       </c>
-      <c r="D9" s="310">
+      <c r="D9" s="258">
         <v>249300</v>
       </c>
       <c r="E9" s="198">
@@ -3901,67 +3901,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="264" t="s">
+      <c r="A1" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="264"/>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
-      <c r="I1" s="264"/>
-      <c r="J1" s="264"/>
-      <c r="K1" s="264"/>
-      <c r="L1" s="264"/>
-      <c r="M1" s="264"/>
-      <c r="N1" s="264"/>
-      <c r="O1" s="264"/>
-      <c r="P1" s="264"/>
-      <c r="Q1" s="264"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
+      <c r="N1" s="268"/>
+      <c r="O1" s="268"/>
+      <c r="P1" s="268"/>
+      <c r="Q1" s="268"/>
     </row>
     <row r="2" spans="1:24" s="118" customFormat="1" ht="18">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="269" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
-      <c r="L2" s="265"/>
-      <c r="M2" s="265"/>
-      <c r="N2" s="265"/>
-      <c r="O2" s="265"/>
-      <c r="P2" s="265"/>
-      <c r="Q2" s="265"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="269"/>
+      <c r="O2" s="269"/>
+      <c r="P2" s="269"/>
+      <c r="Q2" s="269"/>
     </row>
     <row r="3" spans="1:24" s="119" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="270" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
-      <c r="L3" s="267"/>
-      <c r="M3" s="267"/>
-      <c r="N3" s="267"/>
-      <c r="O3" s="267"/>
-      <c r="P3" s="267"/>
-      <c r="Q3" s="268"/>
+      <c r="B3" s="271"/>
+      <c r="C3" s="271"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="271"/>
+      <c r="G3" s="271"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="271"/>
+      <c r="J3" s="271"/>
+      <c r="K3" s="271"/>
+      <c r="L3" s="271"/>
+      <c r="M3" s="271"/>
+      <c r="N3" s="271"/>
+      <c r="O3" s="271"/>
+      <c r="P3" s="271"/>
+      <c r="Q3" s="272"/>
       <c r="S3" s="49"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -3970,52 +3970,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="121" customFormat="1">
-      <c r="A4" s="269" t="s">
+      <c r="A4" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="271" t="s">
+      <c r="B4" s="275" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="260" t="s">
+      <c r="C4" s="262" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="260" t="s">
+      <c r="D4" s="262" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="260" t="s">
+      <c r="E4" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="260" t="s">
+      <c r="F4" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="260" t="s">
+      <c r="G4" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="260" t="s">
+      <c r="H4" s="262" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="260" t="s">
+      <c r="I4" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="260" t="s">
+      <c r="J4" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="260" t="s">
+      <c r="K4" s="262" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="260" t="s">
+      <c r="L4" s="262" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="260" t="s">
+      <c r="M4" s="262" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="262" t="s">
+      <c r="N4" s="266" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="275" t="s">
+      <c r="O4" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="273" t="s">
+      <c r="P4" s="277" t="s">
         <v>42</v>
       </c>
       <c r="Q4" s="120" t="s">
@@ -4028,22 +4028,22 @@
       <c r="W4" s="123"/>
     </row>
     <row r="5" spans="1:24" s="121" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="270"/>
-      <c r="B5" s="272"/>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261"/>
-      <c r="G5" s="261"/>
-      <c r="H5" s="261"/>
-      <c r="I5" s="261"/>
-      <c r="J5" s="261"/>
-      <c r="K5" s="261"/>
-      <c r="L5" s="261"/>
-      <c r="M5" s="261"/>
-      <c r="N5" s="263"/>
-      <c r="O5" s="276"/>
-      <c r="P5" s="274"/>
+      <c r="A5" s="274"/>
+      <c r="B5" s="276"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="263"/>
+      <c r="M5" s="263"/>
+      <c r="N5" s="267"/>
+      <c r="O5" s="265"/>
+      <c r="P5" s="278"/>
       <c r="Q5" s="125" t="s">
         <v>43</v>
       </c>
@@ -6965,12 +6965,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -6984,6 +6978,12 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7022,14 +7022,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
       <c r="L1" s="39"/>
       <c r="M1" s="173"/>
       <c r="N1" s="173"/>
@@ -7082,14 +7082,14 @@
       <c r="BI1" s="173"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="284" t="s">
+      <c r="A2" s="286" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
       <c r="L2" s="39"/>
       <c r="M2" s="173"/>
       <c r="N2" s="173"/>
@@ -7142,14 +7142,14 @@
       <c r="BI2" s="173"/>
     </row>
     <row r="3" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A3" s="285" t="s">
+      <c r="A3" s="287" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
+      <c r="B3" s="287"/>
+      <c r="C3" s="287"/>
+      <c r="D3" s="287"/>
+      <c r="E3" s="287"/>
+      <c r="F3" s="287"/>
       <c r="K3" s="173"/>
       <c r="L3" s="39"/>
       <c r="M3" s="173"/>
@@ -9325,12 +9325,12 @@
       <c r="BI34" s="173"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="286" t="s">
+      <c r="A35" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="287"/>
-      <c r="C35" s="287"/>
-      <c r="D35" s="288"/>
+      <c r="B35" s="289"/>
+      <c r="C35" s="289"/>
+      <c r="D35" s="290"/>
       <c r="E35" s="49"/>
       <c r="F35" s="44"/>
       <c r="G35" s="61"/>
@@ -9390,12 +9390,12 @@
       <c r="BI35" s="173"/>
     </row>
     <row r="36" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A36" s="292" t="s">
+      <c r="A36" s="294" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="293"/>
-      <c r="C36" s="293"/>
-      <c r="D36" s="294"/>
+      <c r="B36" s="295"/>
+      <c r="C36" s="295"/>
+      <c r="D36" s="296"/>
       <c r="E36" s="242">
         <f>F33-C113+K136</f>
         <v>17890</v>
@@ -9649,7 +9649,7 @@
     <row r="40" spans="1:61">
       <c r="A40" s="87"/>
       <c r="B40" s="177"/>
-      <c r="C40" s="311"/>
+      <c r="C40" s="259"/>
       <c r="D40" s="44"/>
       <c r="E40" s="48"/>
       <c r="F40" s="40"/>
@@ -9860,13 +9860,13 @@
       </c>
       <c r="D43" s="216"/>
       <c r="E43" s="49"/>
-      <c r="F43" s="289" t="s">
+      <c r="F43" s="291" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="290"/>
-      <c r="H43" s="290"/>
-      <c r="I43" s="290"/>
-      <c r="J43" s="291"/>
+      <c r="G43" s="292"/>
+      <c r="H43" s="292"/>
+      <c r="I43" s="292"/>
+      <c r="J43" s="293"/>
       <c r="K43" s="225"/>
       <c r="L43" s="41"/>
       <c r="M43" s="173"/>
@@ -11072,10 +11072,10 @@
       <c r="C62" s="219"/>
       <c r="D62" s="82"/>
       <c r="E62" s="54"/>
-      <c r="F62" s="277" t="s">
+      <c r="F62" s="279" t="s">
         <v>47</v>
       </c>
-      <c r="G62" s="277"/>
+      <c r="G62" s="279"/>
       <c r="H62" s="172"/>
       <c r="I62" s="172"/>
       <c r="J62" s="83" t="s">
@@ -14417,10 +14417,10 @@
       <c r="BI112" s="173"/>
     </row>
     <row r="113" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A113" s="278" t="s">
+      <c r="A113" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="279"/>
+      <c r="B113" s="281"/>
       <c r="C113" s="236">
         <f>SUM(C37:C112)</f>
         <v>383380</v>
@@ -14552,10 +14552,10 @@
       <c r="BI114" s="173"/>
     </row>
     <row r="115" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A115" s="280" t="s">
+      <c r="A115" s="282" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="281"/>
+      <c r="B115" s="283"/>
       <c r="C115" s="234">
         <f>C113+L136</f>
         <v>383380</v>
@@ -16474,8 +16474,8 @@
       <c r="N169" s="176"/>
     </row>
     <row r="170" spans="5:14">
-      <c r="F170" s="282"/>
-      <c r="G170" s="282"/>
+      <c r="F170" s="284"/>
+      <c r="G170" s="284"/>
       <c r="H170" s="173"/>
       <c r="I170" s="52"/>
       <c r="J170" s="39"/>
@@ -17135,7 +17135,7 @@
   <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17155,35 +17155,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="297" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="297"/>
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="299"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="304" t="s">
+      <c r="A2" s="306" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="306"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="308"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="24" thickBot="1">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="300" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="300"/>
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="302"/>
       <c r="F3" s="1"/>
       <c r="G3" s="23"/>
       <c r="H3" s="1"/>
@@ -17210,13 +17210,13 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" ht="24" thickBot="1">
-      <c r="A4" s="307" t="s">
+      <c r="A4" s="309" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="308"/>
-      <c r="C4" s="308"/>
-      <c r="D4" s="308"/>
-      <c r="E4" s="309"/>
+      <c r="B4" s="310"/>
+      <c r="C4" s="310"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="311"/>
       <c r="F4" s="1"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
@@ -17256,7 +17256,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="252">
-        <v>2447070</v>
+        <v>2347070</v>
       </c>
       <c r="F5" s="1"/>
       <c r="J5" s="1"/>
@@ -17285,7 +17285,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="200">
-        <v>20480</v>
+        <v>21480</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="189" t="s">
@@ -17324,7 +17324,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="201">
-        <v>229210</v>
+        <v>329210</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="29"/>
@@ -17462,7 +17462,7 @@
       </c>
       <c r="B11" s="255">
         <f>B6-B10-B9+B7</f>
-        <v>16710</v>
+        <v>17710</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="189" t="s">
@@ -17639,7 +17639,7 @@
       </c>
       <c r="B16" s="200">
         <f>B5+B6-B9-B10-B13-B14</f>
-        <v>6016710</v>
+        <v>6017710</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="189" t="s">
@@ -17652,7 +17652,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="166">
         <f>B16-E16</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="186"/>
       <c r="I16" s="1"/>
@@ -17710,13 +17710,13 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="22.5">
-      <c r="A18" s="301" t="s">
+      <c r="A18" s="303" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="302"/>
-      <c r="C18" s="302"/>
-      <c r="D18" s="302"/>
-      <c r="E18" s="303"/>
+      <c r="B18" s="304"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="305"/>
       <c r="F18" s="1"/>
       <c r="G18" s="8"/>
       <c r="H18" s="186"/>
